--- a/Assets/SceneRebuilder/Others/GPUInstancerTest/GPUInstance测试.xlsx
+++ b/Assets/SceneRebuilder/Others/GPUInstancerTest/GPUInstance测试.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>MinCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,10 @@
   </si>
   <si>
     <t>去掉全部建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出主厂房管道模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,15 +387,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>208524</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>122759</xdr:rowOff>
+      <xdr:colOff>284724</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75134</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -408,7 +412,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2571750"/>
+          <a:off x="76200" y="1838325"/>
           <a:ext cx="8209524" cy="8523809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2231,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2243,7 +2247,7 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2278,7 +2282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2304,7 +2308,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>44</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2350,7 +2354,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>54</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
         <v>55</v>
       </c>
@@ -2388,6 +2392,9 @@
       </c>
       <c r="K10">
         <v>790</v>
+      </c>
+      <c r="M10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/SceneRebuilder/Others/GPUInstancerTest/GPUInstance测试.xlsx
+++ b/Assets/SceneRebuilder/Others/GPUInstancerTest/GPUInstance测试.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="GPU参数测试" sheetId="1" r:id="rId1"/>
     <sheet name="运行测试" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="GPU参数测试 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>MinCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +244,10 @@
   </si>
   <si>
     <t>导出主厂房管道模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330K</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,10 +340,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -347,14 +370,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -365,6 +385,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -712,51 +756,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="21" ySplit="2" topLeftCell="V3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="8.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="15"/>
+    <col min="13" max="13" width="9" style="15" customWidth="1"/>
+    <col min="14" max="15" width="9" style="15"/>
+    <col min="16" max="16" width="9" style="22"/>
+    <col min="17" max="17" width="9" style="14"/>
+    <col min="18" max="21" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="L1" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -768,7 +821,7 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
@@ -783,103 +836,125 @@
       <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+    <row r="3" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>2233</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>45461</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>3207</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>48668</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>0.93400000000000005</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>3623004</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>752459</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>4375463</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="9">
         <v>0.82799999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>903</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>42600</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>6068</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>48668</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.875</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>3109268</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>1266195</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>4375463</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <v>0.71099999999999997</v>
       </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -891,7 +966,7 @@
       <c r="C5" s="2">
         <v>40977</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>7691</v>
       </c>
       <c r="E5" s="2">
@@ -912,37 +987,37 @@
       <c r="J5" s="3">
         <v>0.65800000000000003</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="18">
         <v>41989</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="19">
         <v>41</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="19">
         <v>1103</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="19">
         <v>1091</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="18">
         <v>29</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="19">
         <v>16479</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="19">
         <v>1123</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="U5" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -956,7 +1031,7 @@
       <c r="C6">
         <v>40351</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8317</v>
       </c>
       <c r="E6">
@@ -988,7 +1063,7 @@
       <c r="C7" s="2">
         <v>39253</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>9415</v>
       </c>
       <c r="E7" s="2">
@@ -1009,37 +1084,37 @@
       <c r="J7" s="3">
         <v>0.60699999999999998</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="18">
         <v>39795</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="19">
         <v>55</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="19">
         <v>633</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="19">
         <v>621</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="18">
         <v>31</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="19">
         <v>19457</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="19">
         <v>653</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="19" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1053,7 +1128,7 @@
       <c r="C8" s="2">
         <v>37375</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>11293</v>
       </c>
       <c r="E8" s="2">
@@ -1074,37 +1149,37 @@
       <c r="J8" s="3">
         <v>0.55400000000000005</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="18">
         <v>37637</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="19">
         <v>69</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="19">
         <v>353</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="19">
         <v>341</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="18">
         <v>30</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="19">
         <v>22933</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="19">
         <v>373</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="T8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="U8" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1118,7 +1193,7 @@
       <c r="C9">
         <v>36520</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>12148</v>
       </c>
       <c r="E9">
@@ -1150,7 +1225,7 @@
       <c r="C10">
         <v>35514</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>13154</v>
       </c>
       <c r="E10">
@@ -1172,68 +1247,68 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+    <row r="11" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
         <v>50</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>51</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>34936</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>13732</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>48668</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <v>0.71799999999999997</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>2120122</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>2255341</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <v>4375463</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <v>0.48499999999999999</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="20">
         <v>35038</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="21">
         <v>79</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="21">
         <v>193</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="21">
         <v>181</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="20">
         <v>29</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="21">
         <v>27651</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="21">
         <v>213</v>
       </c>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="21" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1247,7 +1322,7 @@
       <c r="C12">
         <v>34561</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>14107</v>
       </c>
       <c r="E12">
@@ -1279,7 +1354,7 @@
       <c r="C13">
         <v>34110</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>14558</v>
       </c>
       <c r="E13">
@@ -1311,7 +1386,7 @@
       <c r="C14">
         <v>33891</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>14777</v>
       </c>
       <c r="E14">
@@ -1343,7 +1418,7 @@
       <c r="C15">
         <v>33461</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>15207</v>
       </c>
       <c r="E15">
@@ -1375,7 +1450,7 @@
       <c r="C16" s="2">
         <v>33180</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>15488</v>
       </c>
       <c r="E16" s="2">
@@ -1396,37 +1471,37 @@
       <c r="J16" s="3">
         <v>0.42399999999999999</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="18">
         <v>33232</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="19">
         <v>80</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="19">
         <v>143</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="19">
         <v>131</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="18">
         <v>27</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R16" s="19">
         <v>31113</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="19">
         <v>163</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1440,7 +1515,7 @@
       <c r="C17">
         <v>32868</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>15800</v>
       </c>
       <c r="E17">
@@ -1472,7 +1547,7 @@
       <c r="C18">
         <v>32634</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>16034</v>
       </c>
       <c r="E18">
@@ -1504,7 +1579,7 @@
       <c r="C19">
         <v>32506</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>16162</v>
       </c>
       <c r="E19">
@@ -1536,7 +1611,7 @@
       <c r="C20">
         <v>32105</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>16563</v>
       </c>
       <c r="E20">
@@ -1568,7 +1643,7 @@
       <c r="C21">
         <v>32105</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>16563</v>
       </c>
       <c r="E21">
@@ -1600,7 +1675,7 @@
       <c r="C22">
         <v>31954</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>16714</v>
       </c>
       <c r="E22">
@@ -1632,7 +1707,7 @@
       <c r="C23">
         <v>31954</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>16714</v>
       </c>
       <c r="E23">
@@ -1664,7 +1739,7 @@
       <c r="C24">
         <v>31434</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>17234</v>
       </c>
       <c r="E24">
@@ -1696,7 +1771,7 @@
       <c r="C25">
         <v>31254</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>17414</v>
       </c>
       <c r="E25">
@@ -1728,7 +1803,7 @@
       <c r="C26" s="2">
         <v>31062</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>17606</v>
       </c>
       <c r="E26" s="2">
@@ -1749,37 +1824,37 @@
       <c r="J26" s="3">
         <v>0.33900000000000002</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="18">
         <v>31084</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="19">
         <v>90</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="19">
         <v>113</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="19">
         <v>101</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="P26" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="Q26" s="18">
         <v>27</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="19">
         <v>35317</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="19">
         <v>133</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1793,7 +1868,7 @@
       <c r="C27">
         <v>31062</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>17606</v>
       </c>
       <c r="E27">
@@ -1825,7 +1900,7 @@
       <c r="C28">
         <v>31062</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>17606</v>
       </c>
       <c r="E28">
@@ -1857,7 +1932,7 @@
       <c r="C29">
         <v>30835</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>17833</v>
       </c>
       <c r="E29">
@@ -1889,7 +1964,7 @@
       <c r="C30">
         <v>30835</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>17833</v>
       </c>
       <c r="E30">
@@ -1921,7 +1996,7 @@
       <c r="C31" s="2">
         <v>30355</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>18313</v>
       </c>
       <c r="E31" s="2">
@@ -1942,37 +2017,37 @@
       <c r="J31" s="3">
         <v>0.32900000000000001</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="18">
         <v>30371</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="19">
         <v>93</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="19">
         <v>107</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="19">
         <v>95</v>
       </c>
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="P31" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="Q31" s="18">
         <v>27</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="19">
         <v>36725</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="19">
         <v>127</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="T31" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="U31" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1986,7 +2061,7 @@
       <c r="C32">
         <v>30355</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>18313</v>
       </c>
       <c r="E32">
@@ -2008,7 +2083,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>270</v>
       </c>
@@ -2018,7 +2093,7 @@
       <c r="C33">
         <v>30355</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>18313</v>
       </c>
       <c r="E33">
@@ -2040,7 +2115,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>280</v>
       </c>
@@ -2050,7 +2125,7 @@
       <c r="C34">
         <v>30355</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>18313</v>
       </c>
       <c r="E34">
@@ -2072,7 +2147,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>290</v>
       </c>
@@ -2082,7 +2157,7 @@
       <c r="C35">
         <v>29787</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>18881</v>
       </c>
       <c r="E35">
@@ -2104,7 +2179,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>300</v>
       </c>
@@ -2114,7 +2189,7 @@
       <c r="C36">
         <v>29787</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>18881</v>
       </c>
       <c r="E36">
@@ -2136,89 +2211,1254 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F39" s="1"/>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="R39" s="15">
+        <v>766</v>
+      </c>
+      <c r="S39" s="15">
+        <v>72</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
       <c r="F42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F57" s="1"/>
-      <c r="J57" s="1"/>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>531</v>
+      </c>
+      <c r="C43">
+        <v>34680</v>
+      </c>
+      <c r="D43" s="4">
+        <v>841</v>
+      </c>
+      <c r="E43">
+        <v>35521</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="G43">
+        <v>2581486</v>
+      </c>
+      <c r="H43">
+        <v>1143905</v>
+      </c>
+      <c r="I43">
+        <v>3725391</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>322</v>
+      </c>
+      <c r="C44">
+        <v>34262</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1259</v>
+      </c>
+      <c r="E44">
+        <v>35521</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="G44">
+        <v>2431540</v>
+      </c>
+      <c r="H44">
+        <v>1293851</v>
+      </c>
+      <c r="I44">
+        <v>3725391</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>267</v>
+      </c>
+      <c r="C45">
+        <v>34097</v>
+      </c>
+      <c r="D45" s="4">
+        <v>1424</v>
+      </c>
+      <c r="E45">
+        <v>35521</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="G45">
+        <v>2379082</v>
+      </c>
+      <c r="H45">
+        <v>1346309</v>
+      </c>
+      <c r="I45">
+        <v>3725391</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>202</v>
+      </c>
+      <c r="C46">
+        <v>33837</v>
+      </c>
+      <c r="D46" s="4">
+        <v>1684</v>
+      </c>
+      <c r="E46">
+        <v>35521</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="G46">
+        <v>2299662</v>
+      </c>
+      <c r="H46">
+        <v>1425729</v>
+      </c>
+      <c r="I46">
+        <v>3725391</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>181</v>
+      </c>
+      <c r="C47">
+        <v>33732</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1789</v>
+      </c>
+      <c r="E47">
+        <v>35521</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="G47">
+        <v>2274072</v>
+      </c>
+      <c r="H47">
+        <v>1451319</v>
+      </c>
+      <c r="I47">
+        <v>3725391</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>158</v>
+      </c>
+      <c r="C48">
+        <v>33594</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1927</v>
+      </c>
+      <c r="E48">
+        <v>35521</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="G48">
+        <v>2226852</v>
+      </c>
+      <c r="H48">
+        <v>1498539</v>
+      </c>
+      <c r="I48">
+        <v>3725391</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>147</v>
+      </c>
+      <c r="C49">
+        <v>33517</v>
+      </c>
+      <c r="D49" s="4">
+        <v>2004</v>
+      </c>
+      <c r="E49">
+        <v>35521</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G49">
+        <v>2205460</v>
+      </c>
+      <c r="H49">
+        <v>1519931</v>
+      </c>
+      <c r="I49">
+        <v>3725391</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>112</v>
+      </c>
+      <c r="C50">
+        <v>33237</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2284</v>
+      </c>
+      <c r="E50">
+        <v>35521</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G50">
+        <v>2139476</v>
+      </c>
+      <c r="H50">
+        <v>1585915</v>
+      </c>
+      <c r="I50">
+        <v>3725391</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51">
+        <v>97</v>
+      </c>
+      <c r="C51">
+        <v>33102</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2419</v>
+      </c>
+      <c r="E51">
+        <v>35521</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="G51">
+        <v>2113790</v>
+      </c>
+      <c r="H51">
+        <v>1611601</v>
+      </c>
+      <c r="I51">
+        <v>3725391</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>59</v>
+      </c>
+      <c r="C52">
+        <v>32603</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2918</v>
+      </c>
+      <c r="E52">
+        <v>35521</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="G52">
+        <v>2033024</v>
+      </c>
+      <c r="H52">
+        <v>1692367</v>
+      </c>
+      <c r="I52">
+        <v>3725391</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.54600000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>32407</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3114</v>
+      </c>
+      <c r="E53">
+        <v>35521</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="G53">
+        <v>2010656</v>
+      </c>
+      <c r="H53">
+        <v>1714735</v>
+      </c>
+      <c r="I53">
+        <v>3725391</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>40</v>
+      </c>
+      <c r="B54">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>32180</v>
+      </c>
+      <c r="D54" s="4">
+        <v>3341</v>
+      </c>
+      <c r="E54">
+        <v>35521</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="G54">
+        <v>1970290</v>
+      </c>
+      <c r="H54">
+        <v>1755101</v>
+      </c>
+      <c r="I54">
+        <v>3725391</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>32003</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3518</v>
+      </c>
+      <c r="E55">
+        <v>35521</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G55">
+        <v>1922388</v>
+      </c>
+      <c r="H55">
+        <v>1803003</v>
+      </c>
+      <c r="I55">
+        <v>3725391</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>60</v>
+      </c>
+      <c r="B56">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>31786</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3735</v>
+      </c>
+      <c r="E56">
+        <v>35521</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="G56">
+        <v>1908416</v>
+      </c>
+      <c r="H56">
+        <v>1816975</v>
+      </c>
+      <c r="I56">
+        <v>3725391</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>70</v>
+      </c>
+      <c r="B57">
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <v>31529</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3992</v>
+      </c>
+      <c r="E57">
+        <v>35521</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="G57">
+        <v>1859200</v>
+      </c>
+      <c r="H57">
+        <v>1866191</v>
+      </c>
+      <c r="I57">
+        <v>3725391</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>80</v>
+      </c>
+      <c r="B58">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>31231</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4290</v>
+      </c>
+      <c r="E58">
+        <v>35521</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.879</v>
+      </c>
+      <c r="G58">
+        <v>1782472</v>
+      </c>
+      <c r="H58">
+        <v>1942919</v>
+      </c>
+      <c r="I58">
+        <v>3725391</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>90</v>
+      </c>
+      <c r="B59">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>30801</v>
+      </c>
+      <c r="D59" s="4">
+        <v>4720</v>
+      </c>
+      <c r="E59">
+        <v>35521</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="G59">
+        <v>1723468</v>
+      </c>
+      <c r="H59">
+        <v>2001923</v>
+      </c>
+      <c r="I59">
+        <v>3725391</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.46300000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>100</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>30519</v>
+      </c>
+      <c r="D60" s="4">
+        <v>5002</v>
+      </c>
+      <c r="E60">
+        <v>35521</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="G60">
+        <v>1675804</v>
+      </c>
+      <c r="H60">
+        <v>2049587</v>
+      </c>
+      <c r="I60">
+        <v>3725391</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>110</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>30415</v>
+      </c>
+      <c r="D61" s="4">
+        <v>5106</v>
+      </c>
+      <c r="E61">
+        <v>35521</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="G61">
+        <v>1657084</v>
+      </c>
+      <c r="H61">
+        <v>2068307</v>
+      </c>
+      <c r="I61">
+        <v>3725391</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>120</v>
+      </c>
+      <c r="B62">
+        <v>18</v>
+      </c>
+      <c r="C62">
+        <v>30302</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5219</v>
+      </c>
+      <c r="E62">
+        <v>35521</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="G62">
+        <v>1638100</v>
+      </c>
+      <c r="H62">
+        <v>2087291</v>
+      </c>
+      <c r="I62">
+        <v>3725391</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>130</v>
+      </c>
+      <c r="B63">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>30302</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5219</v>
+      </c>
+      <c r="E63">
+        <v>35521</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="G63">
+        <v>1638100</v>
+      </c>
+      <c r="H63">
+        <v>2087291</v>
+      </c>
+      <c r="I63">
+        <v>3725391</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>140</v>
+      </c>
+      <c r="B64">
+        <v>17</v>
+      </c>
+      <c r="C64">
+        <v>30170</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5351</v>
+      </c>
+      <c r="E64">
+        <v>35521</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G64">
+        <v>1633348</v>
+      </c>
+      <c r="H64">
+        <v>2092043</v>
+      </c>
+      <c r="I64">
+        <v>3725391</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>150</v>
+      </c>
+      <c r="B65">
+        <v>16</v>
+      </c>
+      <c r="C65">
+        <v>30024</v>
+      </c>
+      <c r="D65" s="4">
+        <v>5497</v>
+      </c>
+      <c r="E65">
+        <v>35521</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G65">
+        <v>1614076</v>
+      </c>
+      <c r="H65">
+        <v>2111315</v>
+      </c>
+      <c r="I65">
+        <v>3725391</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>160</v>
+      </c>
+      <c r="B66">
+        <v>16</v>
+      </c>
+      <c r="C66">
+        <v>30024</v>
+      </c>
+      <c r="D66" s="4">
+        <v>5497</v>
+      </c>
+      <c r="E66">
+        <v>35521</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G66">
+        <v>1614076</v>
+      </c>
+      <c r="H66">
+        <v>2111315</v>
+      </c>
+      <c r="I66">
+        <v>3725391</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>170</v>
+      </c>
+      <c r="B67">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>30024</v>
+      </c>
+      <c r="D67" s="4">
+        <v>5497</v>
+      </c>
+      <c r="E67">
+        <v>35521</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="G67">
+        <v>1614076</v>
+      </c>
+      <c r="H67">
+        <v>2111315</v>
+      </c>
+      <c r="I67">
+        <v>3725391</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>180</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="C68">
+        <v>29504</v>
+      </c>
+      <c r="D68" s="4">
+        <v>6017</v>
+      </c>
+      <c r="E68">
+        <v>35521</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="G68">
+        <v>1434492</v>
+      </c>
+      <c r="H68">
+        <v>2290899</v>
+      </c>
+      <c r="I68">
+        <v>3725391</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>190</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>29324</v>
+      </c>
+      <c r="D69" s="4">
+        <v>6197</v>
+      </c>
+      <c r="E69">
+        <v>35521</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="G69">
+        <v>1428012</v>
+      </c>
+      <c r="H69">
+        <v>2297379</v>
+      </c>
+      <c r="I69">
+        <v>3725391</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>200</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>29132</v>
+      </c>
+      <c r="D70" s="4">
+        <v>6389</v>
+      </c>
+      <c r="E70">
+        <v>35521</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G70">
+        <v>1421100</v>
+      </c>
+      <c r="H70">
+        <v>2304291</v>
+      </c>
+      <c r="I70">
+        <v>3725391</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>210</v>
+      </c>
+      <c r="B71">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <v>29132</v>
+      </c>
+      <c r="D71" s="4">
+        <v>6389</v>
+      </c>
+      <c r="E71">
+        <v>35521</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G71">
+        <v>1421100</v>
+      </c>
+      <c r="H71">
+        <v>2304291</v>
+      </c>
+      <c r="I71">
+        <v>3725391</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>220</v>
+      </c>
+      <c r="B72">
+        <v>11</v>
+      </c>
+      <c r="C72">
+        <v>29132</v>
+      </c>
+      <c r="D72" s="4">
+        <v>6389</v>
+      </c>
+      <c r="E72">
+        <v>35521</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G72">
+        <v>1421100</v>
+      </c>
+      <c r="H72">
+        <v>2304291</v>
+      </c>
+      <c r="I72">
+        <v>3725391</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>230</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>28683</v>
+      </c>
+      <c r="D73" s="4">
+        <v>6838</v>
+      </c>
+      <c r="E73">
+        <v>35521</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="G73">
+        <v>1383144</v>
+      </c>
+      <c r="H73">
+        <v>2342247</v>
+      </c>
+      <c r="I73">
+        <v>3725391</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>240</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74">
+        <v>28683</v>
+      </c>
+      <c r="D74" s="4">
+        <v>6838</v>
+      </c>
+      <c r="E74">
+        <v>35521</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="G74">
+        <v>1383144</v>
+      </c>
+      <c r="H74">
+        <v>2342247</v>
+      </c>
+      <c r="I74">
+        <v>3725391</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0.371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A75">
+        <v>250</v>
+      </c>
+      <c r="B75">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>28443</v>
+      </c>
+      <c r="D75" s="4">
+        <v>7078</v>
+      </c>
+      <c r="E75">
+        <v>35521</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G75">
+        <v>1375944</v>
+      </c>
+      <c r="H75">
+        <v>2349447</v>
+      </c>
+      <c r="I75">
+        <v>3725391</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A76">
+        <v>260</v>
+      </c>
+      <c r="B76">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>28443</v>
+      </c>
+      <c r="D76" s="4">
+        <v>7078</v>
+      </c>
+      <c r="E76">
+        <v>35521</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G76">
+        <v>1375944</v>
+      </c>
+      <c r="H76">
+        <v>2349447</v>
+      </c>
+      <c r="I76">
+        <v>3725391</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A77">
+        <v>270</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>28443</v>
+      </c>
+      <c r="D77" s="4">
+        <v>7078</v>
+      </c>
+      <c r="E77">
+        <v>35521</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G77">
+        <v>1375944</v>
+      </c>
+      <c r="H77">
+        <v>2349447</v>
+      </c>
+      <c r="I77">
+        <v>3725391</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A78">
+        <v>280</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>28443</v>
+      </c>
+      <c r="D78" s="4">
+        <v>7078</v>
+      </c>
+      <c r="E78">
+        <v>35521</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="G78">
+        <v>1375944</v>
+      </c>
+      <c r="H78">
+        <v>2349447</v>
+      </c>
+      <c r="I78">
+        <v>3725391</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A79">
+        <v>290</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>27875</v>
+      </c>
+      <c r="D79" s="4">
+        <v>7646</v>
+      </c>
+      <c r="E79">
+        <v>35521</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G79">
+        <v>1328616</v>
+      </c>
+      <c r="H79">
+        <v>2396775</v>
+      </c>
+      <c r="I79">
+        <v>3725391</v>
+      </c>
+      <c r="J79" s="1">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A80">
+        <v>300</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>27875</v>
+      </c>
+      <c r="D80" s="4">
+        <v>7646</v>
+      </c>
+      <c r="E80">
+        <v>35521</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="G80">
+        <v>1328616</v>
+      </c>
+      <c r="H80">
+        <v>2396775</v>
+      </c>
+      <c r="I80">
+        <v>3725391</v>
+      </c>
+      <c r="J80" s="1">
+        <v>0.35699999999999998</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2237,7 +3477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -2312,19 +3552,19 @@
       <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>20</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>8200</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="13">
         <v>345</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2416,4 +3656,1810 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="21" ySplit="2" topLeftCell="V15" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="15"/>
+    <col min="13" max="13" width="9" style="15" customWidth="1"/>
+    <col min="14" max="15" width="9" style="15"/>
+    <col min="16" max="16" width="9" style="22"/>
+    <col min="17" max="17" width="9" style="14"/>
+    <col min="18" max="21" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="L1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>148</v>
+      </c>
+      <c r="C3">
+        <v>647</v>
+      </c>
+      <c r="D3" s="4">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>683</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G3">
+        <v>362748</v>
+      </c>
+      <c r="H3">
+        <v>22544</v>
+      </c>
+      <c r="I3">
+        <v>385292</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>84</v>
+      </c>
+      <c r="C4">
+        <v>519</v>
+      </c>
+      <c r="D4" s="4">
+        <v>164</v>
+      </c>
+      <c r="E4">
+        <v>683</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G4">
+        <v>294696</v>
+      </c>
+      <c r="H4">
+        <v>90596</v>
+      </c>
+      <c r="I4">
+        <v>385292</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>483</v>
+      </c>
+      <c r="D5" s="4">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>683</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="G5">
+        <v>276972</v>
+      </c>
+      <c r="H5">
+        <v>108320</v>
+      </c>
+      <c r="I5">
+        <v>385292</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="K5" s="14"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>367</v>
+      </c>
+      <c r="D6" s="4">
+        <v>316</v>
+      </c>
+      <c r="E6">
+        <v>683</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="G6">
+        <v>217764</v>
+      </c>
+      <c r="H6">
+        <v>167528</v>
+      </c>
+      <c r="I6">
+        <v>385292</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>332</v>
+      </c>
+      <c r="D7" s="4">
+        <v>351</v>
+      </c>
+      <c r="E7">
+        <v>683</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="G7">
+        <v>198864</v>
+      </c>
+      <c r="H7">
+        <v>186428</v>
+      </c>
+      <c r="I7">
+        <v>385292</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="K7" s="14"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>242</v>
+      </c>
+      <c r="D8" s="4">
+        <v>441</v>
+      </c>
+      <c r="E8">
+        <v>683</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="G8">
+        <v>139596</v>
+      </c>
+      <c r="H8">
+        <v>245696</v>
+      </c>
+      <c r="I8">
+        <v>385292</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="K8" s="14"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>228</v>
+      </c>
+      <c r="D9" s="4">
+        <v>455</v>
+      </c>
+      <c r="E9">
+        <v>683</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G9">
+        <v>132456</v>
+      </c>
+      <c r="H9">
+        <v>252836</v>
+      </c>
+      <c r="I9">
+        <v>385292</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>212</v>
+      </c>
+      <c r="D10" s="4">
+        <v>471</v>
+      </c>
+      <c r="E10">
+        <v>683</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G10">
+        <v>125896</v>
+      </c>
+      <c r="H10">
+        <v>259396</v>
+      </c>
+      <c r="I10">
+        <v>385292</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="K10" s="14"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>158</v>
+      </c>
+      <c r="D11" s="4">
+        <v>525</v>
+      </c>
+      <c r="E11">
+        <v>683</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="G11">
+        <v>94198</v>
+      </c>
+      <c r="H11">
+        <v>291094</v>
+      </c>
+      <c r="I11">
+        <v>385292</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4">
+        <v>637</v>
+      </c>
+      <c r="E12">
+        <v>683</v>
+      </c>
+      <c r="F12" s="1">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G12">
+        <v>25368</v>
+      </c>
+      <c r="H12">
+        <v>359924</v>
+      </c>
+      <c r="I12">
+        <v>385292</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="22"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+    </row>
+    <row r="13" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13" s="4"/>
+      <c r="E13"/>
+      <c r="F13" s="1"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="22"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+    </row>
+    <row r="14" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14" s="4"/>
+      <c r="E14"/>
+      <c r="F14" s="1"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="22"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+    </row>
+    <row r="15" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>1971</v>
+      </c>
+      <c r="C15">
+        <v>41339</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3283</v>
+      </c>
+      <c r="E15">
+        <v>44622</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G15">
+        <v>3236088</v>
+      </c>
+      <c r="H15">
+        <v>729026</v>
+      </c>
+      <c r="I15">
+        <v>3965114</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="22"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+    </row>
+    <row r="16" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>971</v>
+      </c>
+      <c r="C16">
+        <v>39339</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5283</v>
+      </c>
+      <c r="E16">
+        <v>44622</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G16">
+        <v>2913776</v>
+      </c>
+      <c r="H16">
+        <v>1051338</v>
+      </c>
+      <c r="I16">
+        <v>3965114</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="22"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+    </row>
+    <row r="17" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>792</v>
+      </c>
+      <c r="C17">
+        <v>38802</v>
+      </c>
+      <c r="D17" s="4">
+        <v>5820</v>
+      </c>
+      <c r="E17">
+        <v>44622</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="G17">
+        <v>2830148</v>
+      </c>
+      <c r="H17">
+        <v>1134966</v>
+      </c>
+      <c r="I17">
+        <v>3965114</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="22"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+    </row>
+    <row r="18" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>485</v>
+      </c>
+      <c r="C18">
+        <v>37574</v>
+      </c>
+      <c r="D18" s="4">
+        <v>7048</v>
+      </c>
+      <c r="E18">
+        <v>44622</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="G18">
+        <v>2669452</v>
+      </c>
+      <c r="H18">
+        <v>1295662</v>
+      </c>
+      <c r="I18">
+        <v>3965114</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="22"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+    </row>
+    <row r="19" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>449</v>
+      </c>
+      <c r="C19">
+        <v>37394</v>
+      </c>
+      <c r="D19" s="4">
+        <v>7228</v>
+      </c>
+      <c r="E19">
+        <v>44622</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="G19">
+        <v>2631132</v>
+      </c>
+      <c r="H19">
+        <v>1333982</v>
+      </c>
+      <c r="I19">
+        <v>3965114</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="22"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+    </row>
+    <row r="20" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>378</v>
+      </c>
+      <c r="C20">
+        <v>36968</v>
+      </c>
+      <c r="D20" s="4">
+        <v>7654</v>
+      </c>
+      <c r="E20">
+        <v>44622</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="G20">
+        <v>2566788</v>
+      </c>
+      <c r="H20">
+        <v>1398326</v>
+      </c>
+      <c r="I20">
+        <v>3965114</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="22"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+    </row>
+    <row r="21" spans="1:21" s="14" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>361</v>
+      </c>
+      <c r="C21">
+        <v>36849</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7773</v>
+      </c>
+      <c r="E21">
+        <v>44622</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="G21">
+        <v>2539684</v>
+      </c>
+      <c r="H21">
+        <v>1425430</v>
+      </c>
+      <c r="I21">
+        <v>3965114</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="22"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>264</v>
+      </c>
+      <c r="C22">
+        <v>36073</v>
+      </c>
+      <c r="D22" s="4">
+        <v>8549</v>
+      </c>
+      <c r="E22">
+        <v>44622</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="G22">
+        <v>2456724</v>
+      </c>
+      <c r="H22">
+        <v>1508390</v>
+      </c>
+      <c r="I22">
+        <v>3965114</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>240</v>
+      </c>
+      <c r="C23">
+        <v>35857</v>
+      </c>
+      <c r="D23" s="4">
+        <v>8765</v>
+      </c>
+      <c r="E23">
+        <v>44622</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G23">
+        <v>2430876</v>
+      </c>
+      <c r="H23">
+        <v>1534238</v>
+      </c>
+      <c r="I23">
+        <v>3965114</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>118</v>
+      </c>
+      <c r="C24">
+        <v>34223</v>
+      </c>
+      <c r="D24" s="4">
+        <v>10399</v>
+      </c>
+      <c r="E24">
+        <v>44622</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="G24">
+        <v>2215554</v>
+      </c>
+      <c r="H24">
+        <v>1749560</v>
+      </c>
+      <c r="I24">
+        <v>3965114</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>33375</v>
+      </c>
+      <c r="D25" s="4">
+        <v>11247</v>
+      </c>
+      <c r="E25">
+        <v>44622</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.748</v>
+      </c>
+      <c r="G25">
+        <v>2110516</v>
+      </c>
+      <c r="H25">
+        <v>1854598</v>
+      </c>
+      <c r="I25">
+        <v>3965114</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>32376</v>
+      </c>
+      <c r="D26" s="4">
+        <v>12246</v>
+      </c>
+      <c r="E26">
+        <v>44622</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="G26">
+        <v>1977220</v>
+      </c>
+      <c r="H26">
+        <v>1987894</v>
+      </c>
+      <c r="I26">
+        <v>3965114</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>31884</v>
+      </c>
+      <c r="D27" s="4">
+        <v>12738</v>
+      </c>
+      <c r="E27">
+        <v>44622</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="G27">
+        <v>1918782</v>
+      </c>
+      <c r="H27">
+        <v>2046332</v>
+      </c>
+      <c r="I27">
+        <v>3965114</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>31615</v>
+      </c>
+      <c r="D28" s="4">
+        <v>13007</v>
+      </c>
+      <c r="E28">
+        <v>44622</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="G28">
+        <v>1903562</v>
+      </c>
+      <c r="H28">
+        <v>2061552</v>
+      </c>
+      <c r="I28">
+        <v>3965114</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>31358</v>
+      </c>
+      <c r="D29" s="4">
+        <v>13264</v>
+      </c>
+      <c r="E29">
+        <v>44622</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="G29">
+        <v>1854346</v>
+      </c>
+      <c r="H29">
+        <v>2110768</v>
+      </c>
+      <c r="I29">
+        <v>3965114</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.46800000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>31060</v>
+      </c>
+      <c r="D30" s="4">
+        <v>13562</v>
+      </c>
+      <c r="E30">
+        <v>44622</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G30">
+        <v>1777618</v>
+      </c>
+      <c r="H30">
+        <v>2187496</v>
+      </c>
+      <c r="I30">
+        <v>3965114</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>30630</v>
+      </c>
+      <c r="D31" s="4">
+        <v>13992</v>
+      </c>
+      <c r="E31">
+        <v>44622</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="G31">
+        <v>1718614</v>
+      </c>
+      <c r="H31">
+        <v>2246500</v>
+      </c>
+      <c r="I31">
+        <v>3965114</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>30348</v>
+      </c>
+      <c r="D32" s="4">
+        <v>14274</v>
+      </c>
+      <c r="E32">
+        <v>44622</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G32">
+        <v>1670950</v>
+      </c>
+      <c r="H32">
+        <v>2294164</v>
+      </c>
+      <c r="I32">
+        <v>3965114</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>110</v>
+      </c>
+      <c r="B33">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>30244</v>
+      </c>
+      <c r="D33" s="4">
+        <v>14378</v>
+      </c>
+      <c r="E33">
+        <v>44622</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="G33">
+        <v>1652230</v>
+      </c>
+      <c r="H33">
+        <v>2312884</v>
+      </c>
+      <c r="I33">
+        <v>3965114</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>120</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>30131</v>
+      </c>
+      <c r="D34" s="4">
+        <v>14491</v>
+      </c>
+      <c r="E34">
+        <v>44622</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G34">
+        <v>1633246</v>
+      </c>
+      <c r="H34">
+        <v>2331868</v>
+      </c>
+      <c r="I34">
+        <v>3965114</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>130</v>
+      </c>
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>30131</v>
+      </c>
+      <c r="D35" s="4">
+        <v>14491</v>
+      </c>
+      <c r="E35">
+        <v>44622</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G35">
+        <v>1633246</v>
+      </c>
+      <c r="H35">
+        <v>2331868</v>
+      </c>
+      <c r="I35">
+        <v>3965114</v>
+      </c>
+      <c r="J35" s="1">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>140</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <v>29999</v>
+      </c>
+      <c r="D36" s="4">
+        <v>14623</v>
+      </c>
+      <c r="E36">
+        <v>44622</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G36">
+        <v>1628494</v>
+      </c>
+      <c r="H36">
+        <v>2336620</v>
+      </c>
+      <c r="I36">
+        <v>3965114</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>150</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>29853</v>
+      </c>
+      <c r="D37" s="4">
+        <v>14769</v>
+      </c>
+      <c r="E37">
+        <v>44622</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G37">
+        <v>1609222</v>
+      </c>
+      <c r="H37">
+        <v>2355892</v>
+      </c>
+      <c r="I37">
+        <v>3965114</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>160</v>
+      </c>
+      <c r="B38">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>29853</v>
+      </c>
+      <c r="D38" s="4">
+        <v>14769</v>
+      </c>
+      <c r="E38">
+        <v>44622</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G38">
+        <v>1609222</v>
+      </c>
+      <c r="H38">
+        <v>2355892</v>
+      </c>
+      <c r="I38">
+        <v>3965114</v>
+      </c>
+      <c r="J38" s="1">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>170</v>
+      </c>
+      <c r="B39">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>29853</v>
+      </c>
+      <c r="D39" s="4">
+        <v>14769</v>
+      </c>
+      <c r="E39">
+        <v>44622</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="G39">
+        <v>1609222</v>
+      </c>
+      <c r="H39">
+        <v>2355892</v>
+      </c>
+      <c r="I39">
+        <v>3965114</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.40600000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>180</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>29333</v>
+      </c>
+      <c r="D40" s="4">
+        <v>15289</v>
+      </c>
+      <c r="E40">
+        <v>44622</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="G40">
+        <v>1429638</v>
+      </c>
+      <c r="H40">
+        <v>2535476</v>
+      </c>
+      <c r="I40">
+        <v>3965114</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>190</v>
+      </c>
+      <c r="B41">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>29153</v>
+      </c>
+      <c r="D41" s="4">
+        <v>15469</v>
+      </c>
+      <c r="E41">
+        <v>44622</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="G41">
+        <v>1423158</v>
+      </c>
+      <c r="H41">
+        <v>2541956</v>
+      </c>
+      <c r="I41">
+        <v>3965114</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>200</v>
+      </c>
+      <c r="B42">
+        <v>11</v>
+      </c>
+      <c r="C42">
+        <v>28961</v>
+      </c>
+      <c r="D42" s="4">
+        <v>15661</v>
+      </c>
+      <c r="E42">
+        <v>44622</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="G42">
+        <v>1416246</v>
+      </c>
+      <c r="H42">
+        <v>2548868</v>
+      </c>
+      <c r="I42">
+        <v>3965114</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>210</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43">
+        <v>28961</v>
+      </c>
+      <c r="D43" s="4">
+        <v>15661</v>
+      </c>
+      <c r="E43">
+        <v>44622</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="G43">
+        <v>1416246</v>
+      </c>
+      <c r="H43">
+        <v>2548868</v>
+      </c>
+      <c r="I43">
+        <v>3965114</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>220</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44">
+        <v>28961</v>
+      </c>
+      <c r="D44" s="4">
+        <v>15661</v>
+      </c>
+      <c r="E44">
+        <v>44622</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="G44">
+        <v>1416246</v>
+      </c>
+      <c r="H44">
+        <v>2548868</v>
+      </c>
+      <c r="I44">
+        <v>3965114</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.35699999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>230</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>28512</v>
+      </c>
+      <c r="D45" s="4">
+        <v>16110</v>
+      </c>
+      <c r="E45">
+        <v>44622</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="G45">
+        <v>1378290</v>
+      </c>
+      <c r="H45">
+        <v>2586824</v>
+      </c>
+      <c r="I45">
+        <v>3965114</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>240</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>28512</v>
+      </c>
+      <c r="D46" s="4">
+        <v>16110</v>
+      </c>
+      <c r="E46">
+        <v>44622</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="G46">
+        <v>1378290</v>
+      </c>
+      <c r="H46">
+        <v>2586824</v>
+      </c>
+      <c r="I46">
+        <v>3965114</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.34799999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>250</v>
+      </c>
+      <c r="B47">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>28272</v>
+      </c>
+      <c r="D47" s="4">
+        <v>16350</v>
+      </c>
+      <c r="E47">
+        <v>44622</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="G47">
+        <v>1371090</v>
+      </c>
+      <c r="H47">
+        <v>2594024</v>
+      </c>
+      <c r="I47">
+        <v>3965114</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>260</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>28272</v>
+      </c>
+      <c r="D48" s="4">
+        <v>16350</v>
+      </c>
+      <c r="E48">
+        <v>44622</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="G48">
+        <v>1371090</v>
+      </c>
+      <c r="H48">
+        <v>2594024</v>
+      </c>
+      <c r="I48">
+        <v>3965114</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>270</v>
+      </c>
+      <c r="B49">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>28272</v>
+      </c>
+      <c r="D49" s="4">
+        <v>16350</v>
+      </c>
+      <c r="E49">
+        <v>44622</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="G49">
+        <v>1371090</v>
+      </c>
+      <c r="H49">
+        <v>2594024</v>
+      </c>
+      <c r="I49">
+        <v>3965114</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>280</v>
+      </c>
+      <c r="B50">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>28272</v>
+      </c>
+      <c r="D50" s="4">
+        <v>16350</v>
+      </c>
+      <c r="E50">
+        <v>44622</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="G50">
+        <v>1371090</v>
+      </c>
+      <c r="H50">
+        <v>2594024</v>
+      </c>
+      <c r="I50">
+        <v>3965114</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>290</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>27704</v>
+      </c>
+      <c r="D51" s="4">
+        <v>16918</v>
+      </c>
+      <c r="E51">
+        <v>44622</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.621</v>
+      </c>
+      <c r="G51">
+        <v>1323762</v>
+      </c>
+      <c r="H51">
+        <v>2641352</v>
+      </c>
+      <c r="I51">
+        <v>3965114</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>300</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>27704</v>
+      </c>
+      <c r="D52" s="4">
+        <v>16918</v>
+      </c>
+      <c r="E52">
+        <v>44622</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.621</v>
+      </c>
+      <c r="G52">
+        <v>1323762</v>
+      </c>
+      <c r="H52">
+        <v>2641352</v>
+      </c>
+      <c r="I52">
+        <v>3965114</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>